--- a/regression.xlsx
+++ b/regression.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17865" windowHeight="9330" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17865" windowHeight="9330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="一元回归" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="176">
   <si>
     <t>假设：</t>
   </si>
@@ -601,6 +601,10 @@
   </si>
   <si>
     <t>回到郭飞的博客</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>回到统计学目录</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3707,10 +3711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3836,6 +3840,11 @@
         <v>174</v>
       </c>
     </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B18" s="29" t="s">
+        <v>175</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A8:A9"/>
@@ -3845,15 +3854,16 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B17" r:id="rId1"/>
+    <hyperlink ref="B18" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1025" r:id="rId4">
-          <objectPr defaultSize="0" altText="" r:id="rId5">
+        <oleObject progId="Equation.KSEE3" shapeId="1025" r:id="rId5">
+          <objectPr defaultSize="0" altText="" r:id="rId6">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -3872,13 +3882,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1025" r:id="rId4"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1025" r:id="rId5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1027" r:id="rId6">
-          <objectPr defaultSize="0" altText="" r:id="rId7">
+        <oleObject progId="Equation.KSEE3" shapeId="1027" r:id="rId7">
+          <objectPr defaultSize="0" altText="" r:id="rId8">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -3897,13 +3907,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1027" r:id="rId6"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1027" r:id="rId7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1028" r:id="rId8">
-          <objectPr defaultSize="0" altText="" r:id="rId9">
+        <oleObject progId="Equation.KSEE3" shapeId="1028" r:id="rId9">
+          <objectPr defaultSize="0" altText="" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -3922,13 +3932,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1028" r:id="rId8"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1028" r:id="rId9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1029" r:id="rId10">
-          <objectPr defaultSize="0" altText="" r:id="rId11">
+        <oleObject progId="Equation.KSEE3" shapeId="1029" r:id="rId11">
+          <objectPr defaultSize="0" altText="" r:id="rId12">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -3947,13 +3957,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1029" r:id="rId10"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1029" r:id="rId11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1030" r:id="rId12">
-          <objectPr defaultSize="0" altText="" r:id="rId13">
+        <oleObject progId="Equation.KSEE3" shapeId="1030" r:id="rId13">
+          <objectPr defaultSize="0" altText="" r:id="rId14">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -3972,13 +3982,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1030" r:id="rId12"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1030" r:id="rId13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1031" r:id="rId14">
-          <objectPr defaultSize="0" altText="" r:id="rId15">
+        <oleObject progId="Equation.KSEE3" shapeId="1031" r:id="rId15">
+          <objectPr defaultSize="0" altText="" r:id="rId16">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -3997,13 +4007,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1031" r:id="rId14"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1031" r:id="rId15"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1032" r:id="rId16">
-          <objectPr defaultSize="0" altText="" r:id="rId17">
+        <oleObject progId="Equation.KSEE3" shapeId="1032" r:id="rId17">
+          <objectPr defaultSize="0" altText="" r:id="rId18">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -4022,13 +4032,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1032" r:id="rId16"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1032" r:id="rId17"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1033" r:id="rId18">
-          <objectPr defaultSize="0" altText="" r:id="rId19">
+        <oleObject progId="Equation.KSEE3" shapeId="1033" r:id="rId19">
+          <objectPr defaultSize="0" altText="" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -4047,13 +4057,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1033" r:id="rId18"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1033" r:id="rId19"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1034" r:id="rId20">
-          <objectPr defaultSize="0" altText="" r:id="rId21">
+        <oleObject progId="Equation.KSEE3" shapeId="1034" r:id="rId21">
+          <objectPr defaultSize="0" altText="" r:id="rId22">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -4072,13 +4082,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1034" r:id="rId20"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1034" r:id="rId21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1035" r:id="rId22">
-          <objectPr defaultSize="0" altText="" r:id="rId23">
+        <oleObject progId="Equation.KSEE3" shapeId="1035" r:id="rId23">
+          <objectPr defaultSize="0" altText="" r:id="rId24">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -4097,13 +4107,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1035" r:id="rId22"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1035" r:id="rId23"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1036" r:id="rId24">
-          <objectPr defaultSize="0" altText="" r:id="rId25">
+        <oleObject progId="Equation.KSEE3" shapeId="1036" r:id="rId25">
+          <objectPr defaultSize="0" altText="" r:id="rId26">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -4122,13 +4132,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1036" r:id="rId24"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1036" r:id="rId25"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1037" r:id="rId26">
-          <objectPr defaultSize="0" altText="" r:id="rId27">
+        <oleObject progId="Equation.KSEE3" shapeId="1037" r:id="rId27">
+          <objectPr defaultSize="0" altText="" r:id="rId28">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -4147,13 +4157,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1037" r:id="rId26"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1037" r:id="rId27"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1038" r:id="rId28">
-          <objectPr defaultSize="0" altText="" r:id="rId29">
+        <oleObject progId="Equation.KSEE3" shapeId="1038" r:id="rId29">
+          <objectPr defaultSize="0" altText="" r:id="rId30">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -4172,13 +4182,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1038" r:id="rId28"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1038" r:id="rId29"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1039" r:id="rId30">
-          <objectPr defaultSize="0" altText="" r:id="rId31">
+        <oleObject progId="Equation.KSEE3" shapeId="1039" r:id="rId31">
+          <objectPr defaultSize="0" altText="" r:id="rId32">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -4197,13 +4207,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1039" r:id="rId30"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1039" r:id="rId31"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1040" r:id="rId32">
-          <objectPr defaultSize="0" altText="" r:id="rId33">
+        <oleObject progId="Equation.KSEE3" shapeId="1040" r:id="rId33">
+          <objectPr defaultSize="0" altText="" r:id="rId34">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -4222,13 +4232,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1040" r:id="rId32"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1040" r:id="rId33"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1041" r:id="rId34">
-          <objectPr defaultSize="0" altText="" r:id="rId35">
+        <oleObject progId="Equation.KSEE3" shapeId="1041" r:id="rId35">
+          <objectPr defaultSize="0" altText="" r:id="rId36">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -4247,13 +4257,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1041" r:id="rId34"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1041" r:id="rId35"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1042" r:id="rId36">
-          <objectPr defaultSize="0" altText="" r:id="rId37">
+        <oleObject progId="Equation.KSEE3" shapeId="1042" r:id="rId37">
+          <objectPr defaultSize="0" altText="" r:id="rId38">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -4272,13 +4282,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1042" r:id="rId36"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1042" r:id="rId37"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1043" r:id="rId38">
-          <objectPr defaultSize="0" altText="" r:id="rId39">
+        <oleObject progId="Equation.KSEE3" shapeId="1043" r:id="rId39">
+          <objectPr defaultSize="0" altText="" r:id="rId40">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -4297,7 +4307,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1043" r:id="rId38"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1043" r:id="rId39"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -4306,10 +4316,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I116"/>
+  <dimension ref="A1:I117"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5550,6 +5560,11 @@
     <row r="116" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B116" s="29" t="s">
         <v>174</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B117" s="29" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -5579,16 +5594,17 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B116" r:id="rId1"/>
+    <hyperlink ref="B117" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2049" r:id="rId4">
-          <objectPr defaultSize="0" altText="" r:id="rId5">
+        <oleObject progId="Equation.KSEE3" shapeId="2049" r:id="rId5">
+          <objectPr defaultSize="0" altText="" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -5607,13 +5623,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2049" r:id="rId4"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2049" r:id="rId5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2050" r:id="rId6">
-          <objectPr defaultSize="0" altText="" r:id="rId7">
+        <oleObject progId="Equation.KSEE3" shapeId="2050" r:id="rId7">
+          <objectPr defaultSize="0" altText="" r:id="rId8">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -5632,13 +5648,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2050" r:id="rId6"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2050" r:id="rId7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2051" r:id="rId8">
-          <objectPr defaultSize="0" altText="" r:id="rId9">
+        <oleObject progId="Equation.KSEE3" shapeId="2051" r:id="rId9">
+          <objectPr defaultSize="0" altText="" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -5657,13 +5673,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2051" r:id="rId8"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2051" r:id="rId9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2052" r:id="rId10">
-          <objectPr defaultSize="0" altText="" r:id="rId11">
+        <oleObject progId="Equation.KSEE3" shapeId="2052" r:id="rId11">
+          <objectPr defaultSize="0" altText="" r:id="rId12">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -5682,13 +5698,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2052" r:id="rId10"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2052" r:id="rId11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2053" r:id="rId12">
-          <objectPr defaultSize="0" altText="" r:id="rId13">
+        <oleObject progId="Equation.KSEE3" shapeId="2053" r:id="rId13">
+          <objectPr defaultSize="0" altText="" r:id="rId14">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -5707,13 +5723,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2053" r:id="rId12"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2053" r:id="rId13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2054" r:id="rId14">
-          <objectPr defaultSize="0" altText="" r:id="rId15">
+        <oleObject progId="Equation.KSEE3" shapeId="2054" r:id="rId15">
+          <objectPr defaultSize="0" altText="" r:id="rId16">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -5732,13 +5748,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2054" r:id="rId14"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2054" r:id="rId15"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2055" r:id="rId16">
-          <objectPr defaultSize="0" altText="" r:id="rId17">
+        <oleObject progId="Equation.KSEE3" shapeId="2055" r:id="rId17">
+          <objectPr defaultSize="0" altText="" r:id="rId18">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -5757,13 +5773,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2055" r:id="rId16"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2055" r:id="rId17"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2056" r:id="rId18">
-          <objectPr defaultSize="0" altText="" r:id="rId19">
+        <oleObject progId="Equation.KSEE3" shapeId="2056" r:id="rId19">
+          <objectPr defaultSize="0" altText="" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -5782,13 +5798,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2056" r:id="rId18"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2056" r:id="rId19"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2057" r:id="rId20">
-          <objectPr defaultSize="0" altText="" r:id="rId21">
+        <oleObject progId="Equation.KSEE3" shapeId="2057" r:id="rId21">
+          <objectPr defaultSize="0" altText="" r:id="rId22">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -5807,13 +5823,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2057" r:id="rId20"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2057" r:id="rId21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2058" r:id="rId22">
-          <objectPr defaultSize="0" altText="" r:id="rId23">
+        <oleObject progId="Equation.KSEE3" shapeId="2058" r:id="rId23">
+          <objectPr defaultSize="0" altText="" r:id="rId24">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -5832,13 +5848,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2058" r:id="rId22"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2058" r:id="rId23"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2059" r:id="rId24">
-          <objectPr defaultSize="0" altText="" r:id="rId25">
+        <oleObject progId="Equation.KSEE3" shapeId="2059" r:id="rId25">
+          <objectPr defaultSize="0" altText="" r:id="rId26">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -5857,13 +5873,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2059" r:id="rId24"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2059" r:id="rId25"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2060" r:id="rId26">
-          <objectPr defaultSize="0" altText="" r:id="rId27">
+        <oleObject progId="Equation.KSEE3" shapeId="2060" r:id="rId27">
+          <objectPr defaultSize="0" altText="" r:id="rId28">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -5882,13 +5898,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2060" r:id="rId26"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2060" r:id="rId27"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2062" r:id="rId28">
-          <objectPr defaultSize="0" altText="" r:id="rId29">
+        <oleObject progId="Equation.KSEE3" shapeId="2062" r:id="rId29">
+          <objectPr defaultSize="0" altText="" r:id="rId30">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -5907,13 +5923,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2062" r:id="rId28"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2062" r:id="rId29"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2063" r:id="rId30">
-          <objectPr defaultSize="0" altText="" r:id="rId31">
+        <oleObject progId="Equation.KSEE3" shapeId="2063" r:id="rId31">
+          <objectPr defaultSize="0" altText="" r:id="rId32">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -5932,13 +5948,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2063" r:id="rId30"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2063" r:id="rId31"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2065" r:id="rId32">
-          <objectPr defaultSize="0" altText="" r:id="rId33">
+        <oleObject progId="Equation.KSEE3" shapeId="2065" r:id="rId33">
+          <objectPr defaultSize="0" altText="" r:id="rId34">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -5957,13 +5973,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2065" r:id="rId32"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2065" r:id="rId33"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2067" r:id="rId34">
-          <objectPr defaultSize="0" altText="" r:id="rId35">
+        <oleObject progId="Equation.KSEE3" shapeId="2067" r:id="rId35">
+          <objectPr defaultSize="0" altText="" r:id="rId36">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -5982,13 +5998,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2067" r:id="rId34"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2067" r:id="rId35"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2068" r:id="rId36">
-          <objectPr defaultSize="0" altText="" r:id="rId37">
+        <oleObject progId="Equation.KSEE3" shapeId="2068" r:id="rId37">
+          <objectPr defaultSize="0" altText="" r:id="rId38">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -6007,13 +6023,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2068" r:id="rId36"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2068" r:id="rId37"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2069" r:id="rId38">
-          <objectPr defaultSize="0" altText="" r:id="rId39">
+        <oleObject progId="Equation.KSEE3" shapeId="2069" r:id="rId39">
+          <objectPr defaultSize="0" altText="" r:id="rId40">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -6032,13 +6048,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2069" r:id="rId38"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2069" r:id="rId39"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2070" r:id="rId40">
-          <objectPr defaultSize="0" altText="" r:id="rId41">
+        <oleObject progId="Equation.KSEE3" shapeId="2070" r:id="rId41">
+          <objectPr defaultSize="0" altText="" r:id="rId42">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -6057,13 +6073,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2070" r:id="rId40"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2070" r:id="rId41"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2072" r:id="rId42">
-          <objectPr defaultSize="0" altText="" r:id="rId43">
+        <oleObject progId="Equation.KSEE3" shapeId="2072" r:id="rId43">
+          <objectPr defaultSize="0" altText="" r:id="rId44">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -6082,13 +6098,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2072" r:id="rId42"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2072" r:id="rId43"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2073" r:id="rId44">
-          <objectPr defaultSize="0" altText="" r:id="rId45">
+        <oleObject progId="Equation.KSEE3" shapeId="2073" r:id="rId45">
+          <objectPr defaultSize="0" altText="" r:id="rId46">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -6107,13 +6123,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2073" r:id="rId44"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2073" r:id="rId45"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2074" r:id="rId46">
-          <objectPr defaultSize="0" altText="" r:id="rId47">
+        <oleObject progId="Equation.KSEE3" shapeId="2074" r:id="rId47">
+          <objectPr defaultSize="0" altText="" r:id="rId48">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -6132,13 +6148,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2074" r:id="rId46"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2074" r:id="rId47"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2075" r:id="rId48">
-          <objectPr defaultSize="0" altText="" r:id="rId49">
+        <oleObject progId="Equation.KSEE3" shapeId="2075" r:id="rId49">
+          <objectPr defaultSize="0" altText="" r:id="rId50">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -6157,13 +6173,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2075" r:id="rId48"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2075" r:id="rId49"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2076" r:id="rId50">
-          <objectPr defaultSize="0" altText="" r:id="rId51">
+        <oleObject progId="Equation.KSEE3" shapeId="2076" r:id="rId51">
+          <objectPr defaultSize="0" altText="" r:id="rId52">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -6182,13 +6198,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2076" r:id="rId50"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2076" r:id="rId51"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2077" r:id="rId52">
-          <objectPr defaultSize="0" altText="" r:id="rId53">
+        <oleObject progId="Equation.KSEE3" shapeId="2077" r:id="rId53">
+          <objectPr defaultSize="0" altText="" r:id="rId54">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -6207,13 +6223,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2077" r:id="rId52"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2077" r:id="rId53"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2078" r:id="rId54">
-          <objectPr defaultSize="0" altText="" r:id="rId55">
+        <oleObject progId="Equation.KSEE3" shapeId="2078" r:id="rId55">
+          <objectPr defaultSize="0" altText="" r:id="rId56">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -6232,13 +6248,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2078" r:id="rId54"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2078" r:id="rId55"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2079" r:id="rId56">
-          <objectPr defaultSize="0" altText="" r:id="rId57">
+        <oleObject progId="Equation.KSEE3" shapeId="2079" r:id="rId57">
+          <objectPr defaultSize="0" altText="" r:id="rId58">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -6257,13 +6273,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2079" r:id="rId56"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2079" r:id="rId57"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2080" r:id="rId58">
-          <objectPr defaultSize="0" altText="" r:id="rId59">
+        <oleObject progId="Equation.KSEE3" shapeId="2080" r:id="rId59">
+          <objectPr defaultSize="0" altText="" r:id="rId60">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -6282,7 +6298,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2080" r:id="rId58"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2080" r:id="rId59"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -6291,10 +6307,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6364,19 +6380,25 @@
         <v>174</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B11" s="29" t="s">
+        <v>175</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1"/>
+    <hyperlink ref="B11" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="5121" r:id="rId4">
-          <objectPr defaultSize="0" altText="" r:id="rId5">
+        <oleObject progId="Equation.KSEE3" shapeId="5121" r:id="rId5">
+          <objectPr defaultSize="0" altText="" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -6395,13 +6417,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="5121" r:id="rId4"/>
+        <oleObject progId="Equation.KSEE3" shapeId="5121" r:id="rId5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="5123" r:id="rId6">
-          <objectPr defaultSize="0" altText="" r:id="rId7">
+        <oleObject progId="Equation.KSEE3" shapeId="5123" r:id="rId7">
+          <objectPr defaultSize="0" altText="" r:id="rId8">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -6420,13 +6442,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="5123" r:id="rId6"/>
+        <oleObject progId="Equation.KSEE3" shapeId="5123" r:id="rId7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="5124" r:id="rId8">
-          <objectPr defaultSize="0" altText="" r:id="rId9">
+        <oleObject progId="Equation.KSEE3" shapeId="5124" r:id="rId9">
+          <objectPr defaultSize="0" altText="" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -6445,7 +6467,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="5124" r:id="rId8"/>
+        <oleObject progId="Equation.KSEE3" shapeId="5124" r:id="rId9"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -6454,10 +6476,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E11"/>
+  <dimension ref="A3:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6511,6 +6533,11 @@
         <v>174</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B12" s="29" t="s">
+        <v>175</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A4:A6"/>
@@ -6518,8 +6545,9 @@
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B11" r:id="rId1"/>
+    <hyperlink ref="B12" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/regression.xlsx
+++ b/regression.xlsx
@@ -685,7 +685,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -695,81 +695,16 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -782,35 +717,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -818,42 +726,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -876,17 +748,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2514,15 +2413,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>381000</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>790575</xdr:rowOff>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>409575</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>457200</xdr:rowOff>
+          <xdr:rowOff>514350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2567,13 +2466,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1028700</xdr:colOff>
-          <xdr:row>57</xdr:row>
+          <xdr:row>58</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1685925</xdr:colOff>
-          <xdr:row>57</xdr:row>
+          <xdr:row>58</xdr:row>
           <xdr:rowOff>295275</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2619,13 +2518,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1066800</xdr:colOff>
-          <xdr:row>61</xdr:row>
+          <xdr:row>62</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1666875</xdr:colOff>
-          <xdr:row>61</xdr:row>
+          <xdr:row>62</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2671,13 +2570,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>885825</xdr:colOff>
-          <xdr:row>62</xdr:row>
+          <xdr:row>63</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>62</xdr:row>
+          <xdr:row>63</xdr:row>
           <xdr:rowOff>314325</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2723,13 +2622,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>514350</xdr:colOff>
-          <xdr:row>63</xdr:row>
+          <xdr:row>64</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1628775</xdr:colOff>
-          <xdr:row>63</xdr:row>
+          <xdr:row>64</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2775,13 +2674,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1028700</xdr:colOff>
-          <xdr:row>64</xdr:row>
+          <xdr:row>65</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>2200275</xdr:colOff>
-          <xdr:row>64</xdr:row>
+          <xdr:row>65</xdr:row>
           <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2827,13 +2726,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1266825</xdr:colOff>
-          <xdr:row>66</xdr:row>
+          <xdr:row>67</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>67</xdr:row>
+          <xdr:row>68</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2879,13 +2778,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1104900</xdr:colOff>
-          <xdr:row>67</xdr:row>
+          <xdr:row>68</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>733425</xdr:colOff>
-          <xdr:row>67</xdr:row>
+          <xdr:row>68</xdr:row>
           <xdr:rowOff>571500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2931,13 +2830,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
-          <xdr:row>84</xdr:row>
+          <xdr:row>85</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1190625</xdr:colOff>
-          <xdr:row>84</xdr:row>
+          <xdr:row>85</xdr:row>
           <xdr:rowOff>257175</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2983,13 +2882,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>752475</xdr:colOff>
-          <xdr:row>86</xdr:row>
+          <xdr:row>87</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>86</xdr:row>
+          <xdr:row>87</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3035,13 +2934,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
-          <xdr:row>90</xdr:row>
+          <xdr:row>91</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1476375</xdr:colOff>
-          <xdr:row>90</xdr:row>
+          <xdr:row>91</xdr:row>
           <xdr:rowOff>971550</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3087,13 +2986,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>352425</xdr:colOff>
-          <xdr:row>106</xdr:row>
+          <xdr:row>107</xdr:row>
           <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>106</xdr:row>
+          <xdr:row>107</xdr:row>
           <xdr:rowOff>542925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3139,13 +3038,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>107</xdr:row>
+          <xdr:row>108</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1838325</xdr:colOff>
-          <xdr:row>107</xdr:row>
+          <xdr:row>108</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3191,13 +3090,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1000125</xdr:colOff>
-          <xdr:row>109</xdr:row>
+          <xdr:row>110</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>923925</xdr:colOff>
-          <xdr:row>109</xdr:row>
+          <xdr:row>110</xdr:row>
           <xdr:rowOff>257175</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3243,13 +3142,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>571500</xdr:colOff>
-          <xdr:row>110</xdr:row>
+          <xdr:row>111</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1704975</xdr:colOff>
-          <xdr:row>110</xdr:row>
+          <xdr:row>111</xdr:row>
           <xdr:rowOff>247650</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3769,7 +3668,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
@@ -3778,23 +3677,23 @@
       <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="24"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="30"/>
+      <c r="A9" s="9"/>
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="116.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
@@ -3802,31 +3701,31 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="123" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="30"/>
+      <c r="A11" s="9"/>
       <c r="C11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="30"/>
+      <c r="A13" s="9"/>
       <c r="C13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="30"/>
+      <c r="A14" s="9"/>
       <c r="C14" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3836,12 +3735,12 @@
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="8" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="8" t="s">
         <v>175</v>
       </c>
     </row>
@@ -4316,10 +4215,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I117"/>
+  <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4332,1269 +4231,1335 @@
     <col min="7" max="7" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="84" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="47.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:7" ht="47.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+    <row r="3" spans="1:9" ht="47.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:9" ht="47.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:9" ht="26.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:9" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5" t="s">
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="14" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="30" t="s">
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="F17" s="12"/>
+      <c r="G17" s="14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="30"/>
-      <c r="B18" t="s">
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="13"/>
+      <c r="B18" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G18" t="s">
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="G20" t="s">
+      <c r="F20" s="12"/>
+      <c r="G20" s="12" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E21" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="31" t="s">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B24" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="31"/>
-      <c r="B24" s="5" t="s">
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" s="16"/>
+      <c r="B25" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="31" t="s">
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B26" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A26" s="31"/>
-      <c r="B26" s="12" t="s">
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A27" s="16"/>
+      <c r="B27" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:7" ht="69" x14ac:dyDescent="0.15">
-      <c r="A27" s="31"/>
-      <c r="B27" s="13" t="s">
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="1:9" ht="69" x14ac:dyDescent="0.15">
+      <c r="A28" s="16"/>
+      <c r="B28" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" spans="1:7" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="31"/>
-      <c r="B28" s="13" t="s">
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:9" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="16"/>
+      <c r="B29" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="4" t="s">
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A31" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B31" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C31" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A32" s="31" t="s">
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A33" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B33" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="1:7" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="31"/>
-      <c r="B33" s="13" t="s">
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="1:7" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="16"/>
+      <c r="B34" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="1:7" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="31"/>
-      <c r="B34" s="13" t="s">
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="1:7" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A35" s="16"/>
+      <c r="B35" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="6"/>
-    </row>
-    <row r="35" spans="1:7" ht="224.25" x14ac:dyDescent="0.15">
-      <c r="A35" s="31"/>
-      <c r="B35" s="14" t="s">
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="1:7" ht="224.25" x14ac:dyDescent="0.15">
+      <c r="A36" s="16"/>
+      <c r="B36" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="6"/>
-    </row>
-    <row r="36" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A36" s="31" t="s">
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A37" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B37" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="6"/>
-    </row>
-    <row r="37" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A37" s="31"/>
-      <c r="B37" s="13" t="s">
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A38" s="16"/>
+      <c r="B38" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="6"/>
-    </row>
-    <row r="38" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A38" s="32"/>
-      <c r="B38" s="15" t="s">
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A39" s="16"/>
+      <c r="B39" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="9"/>
-    </row>
-    <row r="40" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A40" s="16" t="s">
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A41" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="1:7" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A41" s="17" t="s">
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" spans="1:7" ht="51.75" x14ac:dyDescent="0.15">
+      <c r="A42" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="6"/>
-    </row>
-    <row r="42" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A42" s="17" t="s">
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A43" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B43" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="6"/>
-    </row>
-    <row r="43" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A43" s="17"/>
-      <c r="B43" s="5" t="s">
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+    </row>
+    <row r="44" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A44" s="18"/>
+      <c r="B44" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C44" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="6"/>
-    </row>
-    <row r="44" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A44" s="17"/>
-      <c r="B44" s="5" t="s">
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+    </row>
+    <row r="45" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A45" s="18"/>
+      <c r="B45" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C45" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="6"/>
-    </row>
-    <row r="45" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A45" s="17"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="6"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
     </row>
     <row r="46" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="18"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+    </row>
+    <row r="47" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A47" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B47" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="6"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="4"/>
-      <c r="B47" s="5" t="s">
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="6"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="4"/>
-      <c r="B48" s="5" t="s">
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="6"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="4"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="6"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="31" t="s">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A51" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B51" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="6"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="31"/>
-      <c r="B51" s="33" t="s">
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A52" s="16"/>
+      <c r="B52" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C51" s="34" t="s">
+      <c r="C52" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D52" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="6"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52" s="31"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="5" t="s">
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A53" s="16"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="6"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A53" s="31"/>
-      <c r="B53" s="33"/>
-      <c r="C53" s="34" t="s">
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A54" s="16"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D54" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="6"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A54" s="31"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="5" t="s">
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A55" s="16"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="6"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A55" s="31"/>
-      <c r="B55" s="33"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="5" t="s">
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A56" s="16"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="6"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A56" s="31"/>
-      <c r="B56" s="33"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="5" t="s">
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A57" s="16"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="6"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A57" s="31"/>
-      <c r="B57" s="33"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="5" t="s">
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A58" s="16"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="6"/>
-    </row>
-    <row r="58" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="31"/>
-      <c r="B58" s="33" t="s">
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+    </row>
+    <row r="59" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="16"/>
+      <c r="B59" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C58" s="34" t="s">
+      <c r="C59" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D59" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="6"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A59" s="31"/>
-      <c r="B59" s="33"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="5" t="s">
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A60" s="16"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="6"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A60" s="31"/>
-      <c r="B60" s="33"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="5" t="s">
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A61" s="16"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="6"/>
-    </row>
-    <row r="61" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="31"/>
-      <c r="B61" s="33"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="5" t="s">
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+    </row>
+    <row r="62" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="16"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="6"/>
-    </row>
-    <row r="62" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="31"/>
-      <c r="B62" s="33"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="5" t="s">
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+    </row>
+    <row r="63" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="16"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E63" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="F62" s="5"/>
-      <c r="G62" s="6"/>
-    </row>
-    <row r="63" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="31"/>
-      <c r="B63" s="33" t="s">
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+    </row>
+    <row r="64" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="16"/>
+      <c r="B64" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C63" s="34" t="s">
+      <c r="C64" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D64" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="6"/>
-    </row>
-    <row r="64" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="31"/>
-      <c r="B64" s="33"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="5" t="s">
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+    </row>
+    <row r="65" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="16"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="6"/>
-    </row>
-    <row r="65" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="31"/>
-      <c r="B65" s="33"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="5" t="s">
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+    </row>
+    <row r="66" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="16"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E66" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F65" s="5"/>
-      <c r="G65" s="6"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A66" s="31"/>
-      <c r="B66" s="5" t="s">
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A67" s="16"/>
+      <c r="B67" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C67" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D67" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="6"/>
-    </row>
-    <row r="67" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="31" t="s">
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+    </row>
+    <row r="68" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B68" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C68" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D68" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="6"/>
-    </row>
-    <row r="68" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="31"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5" t="s">
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+    </row>
+    <row r="69" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="16"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="6"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A69" s="31"/>
-      <c r="B69" s="5" t="s">
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A70" s="16"/>
+      <c r="B70" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="6"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A70" s="31"/>
-      <c r="B70" s="5" t="s">
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A71" s="16"/>
+      <c r="B71" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="6"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A71" s="7"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="9"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A73" s="1" t="s">
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A72" s="10"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A74" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="3"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A74" s="4" t="s">
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A75" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="6"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A75" s="31" t="s">
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A76" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B76" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="6"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A76" s="31"/>
-      <c r="B76" s="5" t="s">
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A77" s="16"/>
+      <c r="B77" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C77" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="6"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A77" s="31"/>
-      <c r="B77" s="5" t="s">
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A78" s="16"/>
+      <c r="B78" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C78" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="6"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A78" s="31"/>
-      <c r="B78" s="5" t="s">
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A79" s="16"/>
+      <c r="B79" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="6"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A79" s="31"/>
-      <c r="B79" s="5" t="s">
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A80" s="16"/>
+      <c r="B80" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="6"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A80" s="31" t="s">
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A81" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B81" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="6"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A81" s="31"/>
-      <c r="B81" s="5" t="s">
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A82" s="16"/>
+      <c r="B82" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="6"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A82" s="31"/>
-      <c r="B82" s="5" t="s">
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A83" s="16"/>
+      <c r="B83" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="6"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A83" s="31" t="s">
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A84" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B84" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="6"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A84" s="31"/>
-      <c r="B84" s="34" t="s">
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A85" s="16"/>
+      <c r="B85" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C84" s="34" t="s">
+      <c r="C85" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="D85" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="6"/>
-    </row>
-    <row r="85" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="31"/>
-      <c r="B85" s="34"/>
-      <c r="C85" s="34"/>
-      <c r="D85" s="5" t="s">
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+    </row>
+    <row r="86" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="16"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="6"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A86" s="31"/>
-      <c r="B86" s="34"/>
-      <c r="C86" s="34"/>
-      <c r="D86" s="5" t="s">
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A87" s="16"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="6"/>
-    </row>
-    <row r="87" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="31"/>
-      <c r="B87" s="34"/>
-      <c r="C87" s="34"/>
-      <c r="D87" s="5" t="s">
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+    </row>
+    <row r="88" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="16"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="6"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A88" s="31"/>
-      <c r="B88" s="34"/>
-      <c r="C88" s="34"/>
-      <c r="D88" s="5" t="s">
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A89" s="16"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="6"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A89" s="31"/>
-      <c r="B89" s="34"/>
-      <c r="C89" s="34"/>
-      <c r="D89" s="5" t="s">
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A90" s="16"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="6"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A90" s="31"/>
-      <c r="B90" s="34"/>
-      <c r="C90" s="34" t="s">
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A91" s="16"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="D91" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="6"/>
-    </row>
-    <row r="91" spans="1:7" ht="81.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="31"/>
-      <c r="B91" s="34"/>
-      <c r="C91" s="34"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="6"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A92" s="31"/>
-      <c r="B92" s="34"/>
-      <c r="C92" s="34"/>
-      <c r="D92" s="5" t="s">
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+    </row>
+    <row r="92" spans="1:7" ht="81.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="16"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A93" s="16"/>
+      <c r="B93" s="16"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="6"/>
-    </row>
-    <row r="93" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A93" s="31"/>
-      <c r="B93" s="34"/>
-      <c r="C93" s="34"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="18" t="s">
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+    </row>
+    <row r="94" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A94" s="16"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="F93" s="19" t="s">
+      <c r="F94" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="G93" s="6"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A94" s="31"/>
-      <c r="B94" s="34"/>
-      <c r="C94" s="34"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="20">
+      <c r="G94" s="10"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A95" s="16"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="21">
         <v>4</v>
       </c>
-      <c r="F94" s="21">
+      <c r="F95" s="21">
         <v>-1</v>
       </c>
-      <c r="G94" s="6"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A95" s="31"/>
-      <c r="B95" s="34"/>
-      <c r="C95" s="34"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="20" t="s">
+      <c r="G95" s="10"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A96" s="16"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="F95" s="21" t="s">
+      <c r="F96" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="G95" s="6"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A96" s="31"/>
-      <c r="B96" s="34"/>
-      <c r="C96" s="34"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="20">
+      <c r="G96" s="10"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A97" s="16"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="21">
         <v>2</v>
       </c>
-      <c r="F96" s="21">
+      <c r="F97" s="21">
         <v>0</v>
       </c>
-      <c r="G96" s="6"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A97" s="31"/>
-      <c r="B97" s="34"/>
-      <c r="C97" s="34"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="20" t="s">
+      <c r="G97" s="10"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A98" s="16"/>
+      <c r="B98" s="16"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="F97" s="21" t="s">
+      <c r="F98" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="G97" s="6"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A98" s="31"/>
-      <c r="B98" s="34"/>
-      <c r="C98" s="34"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="22">
+      <c r="G98" s="10"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A99" s="16"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="21">
         <v>2</v>
       </c>
-      <c r="F98" s="23">
+      <c r="F99" s="21">
         <v>1</v>
       </c>
-      <c r="G98" s="6"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A99" s="31"/>
-      <c r="B99" s="34"/>
-      <c r="C99" s="34"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="6"/>
+      <c r="G99" s="10"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A100" s="31"/>
-      <c r="B100" s="34"/>
-      <c r="C100" s="34"/>
-      <c r="D100" s="5" t="s">
+      <c r="A100" s="16"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A101" s="16"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="6"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A101" s="31"/>
-      <c r="B101" s="34"/>
-      <c r="C101" s="34"/>
-      <c r="D101" s="1" t="s">
+      <c r="E101" s="10"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A102" s="16"/>
+      <c r="B102" s="16"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="E102" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F101" s="5"/>
-      <c r="G101" s="6"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A102" s="31"/>
-      <c r="B102" s="34"/>
-      <c r="C102" s="34"/>
-      <c r="D102" s="4" t="s">
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A103" s="16"/>
+      <c r="B103" s="16"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E102" s="6" t="s">
+      <c r="E103" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="F102" s="5"/>
-      <c r="G102" s="6"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A103" s="31"/>
-      <c r="B103" s="34"/>
-      <c r="C103" s="34"/>
-      <c r="D103" s="4" t="s">
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A104" s="16"/>
+      <c r="B104" s="16"/>
+      <c r="C104" s="16"/>
+      <c r="D104" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="E103" s="6" t="s">
+      <c r="E104" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="F103" s="5"/>
-      <c r="G103" s="6"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A104" s="31"/>
-      <c r="B104" s="34"/>
-      <c r="C104" s="34"/>
-      <c r="D104" s="4" t="s">
+      <c r="F104" s="10"/>
+      <c r="G104" s="10"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A105" s="16"/>
+      <c r="B105" s="16"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="E104" s="6" t="s">
+      <c r="E105" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="F104" s="5"/>
-      <c r="G104" s="6"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A105" s="31"/>
-      <c r="B105" s="34"/>
-      <c r="C105" s="34"/>
-      <c r="D105" s="4" t="s">
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A106" s="16"/>
+      <c r="B106" s="16"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="E105" s="6" t="s">
+      <c r="E106" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="F105" s="5"/>
-      <c r="G105" s="6"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A106" s="31"/>
-      <c r="B106" s="34"/>
-      <c r="C106" s="34"/>
-      <c r="D106" s="7" t="s">
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A107" s="16"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="E106" s="9" t="s">
+      <c r="E107" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="F106" s="5"/>
-      <c r="G106" s="6"/>
-    </row>
-    <row r="107" spans="1:7" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="31"/>
-      <c r="B107" s="34" t="s">
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
+    </row>
+    <row r="108" spans="1:7" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="16"/>
+      <c r="B108" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="C108" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D107" s="5" t="s">
+      <c r="D108" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="6"/>
-    </row>
-    <row r="108" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="31"/>
-      <c r="B108" s="34"/>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5" t="s">
+      <c r="E108" s="10"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10"/>
+    </row>
+    <row r="109" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="16"/>
+      <c r="B109" s="16"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="6"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A109" s="31"/>
-      <c r="B109" s="34"/>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5" t="s">
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A110" s="16"/>
+      <c r="B110" s="16"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5"/>
-      <c r="G109" s="6"/>
-    </row>
-    <row r="110" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="31"/>
-      <c r="B110" s="34"/>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5" t="s">
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+    </row>
+    <row r="111" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="16"/>
+      <c r="B111" s="16"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="E110" s="5"/>
-      <c r="F110" s="5"/>
-      <c r="G110" s="6"/>
-    </row>
-    <row r="111" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="31"/>
-      <c r="B111" s="34"/>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5" t="s">
+      <c r="E111" s="10"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
+    </row>
+    <row r="112" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="16"/>
+      <c r="B112" s="16"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5"/>
-      <c r="G111" s="6"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A112" s="31"/>
-      <c r="B112" s="34"/>
-      <c r="C112" s="5"/>
-      <c r="D112" s="5" t="s">
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A113" s="16"/>
+      <c r="B113" s="16"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="E112" s="5"/>
-      <c r="F112" s="5"/>
-      <c r="G112" s="6"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A113" s="4" t="s">
+      <c r="E113" s="10"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A114" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="B114" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="5"/>
-      <c r="G113" s="6"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A114" s="7"/>
-      <c r="B114" s="8" t="s">
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A115" s="10"/>
+      <c r="B115" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C114" s="8"/>
-      <c r="D114" s="8"/>
-      <c r="E114" s="8"/>
-      <c r="F114" s="8"/>
-      <c r="G114" s="9"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="I115" t="s">
+      <c r="C115" s="10"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="10"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I116" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B116" s="29" t="s">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B117" s="8" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B117" s="29" t="s">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B118" s="8" t="s">
         <v>175</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C90:C106"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="C58:C62"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="C84:C89"/>
-    <mergeCell ref="B51:B57"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B84:B106"/>
-    <mergeCell ref="B107:B112"/>
-    <mergeCell ref="A50:A66"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="A80:A82"/>
-    <mergeCell ref="A83:A112"/>
     <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A51:A67"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="A76:A80"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="A84:A113"/>
+    <mergeCell ref="B52:B58"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B85:B107"/>
+    <mergeCell ref="B108:B113"/>
+    <mergeCell ref="C91:C107"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C54:C58"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="C85:C90"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B116" r:id="rId1"/>
-    <hyperlink ref="B117" r:id="rId2"/>
+    <hyperlink ref="B117" r:id="rId1"/>
+    <hyperlink ref="B118" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5929,19 +5894,19 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject progId="Equation.KSEE3" shapeId="2063" r:id="rId31">
-          <objectPr defaultSize="0" altText="" r:id="rId32">
+          <objectPr defaultSize="0" autoPict="0" altText="" r:id="rId32">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>790575</xdr:rowOff>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>409575</xdr:colOff>
                 <xdr:row>19</xdr:row>
-                <xdr:rowOff>457200</xdr:rowOff>
+                <xdr:rowOff>514350</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -5959,13 +5924,13 @@
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>1028700</xdr:colOff>
-                <xdr:row>57</xdr:row>
+                <xdr:row>58</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>1685925</xdr:colOff>
-                <xdr:row>57</xdr:row>
+                <xdr:row>58</xdr:row>
                 <xdr:rowOff>295275</xdr:rowOff>
               </to>
             </anchor>
@@ -5984,13 +5949,13 @@
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>1066800</xdr:colOff>
-                <xdr:row>61</xdr:row>
+                <xdr:row>62</xdr:row>
                 <xdr:rowOff>47625</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>1666875</xdr:colOff>
-                <xdr:row>61</xdr:row>
+                <xdr:row>62</xdr:row>
                 <xdr:rowOff>276225</xdr:rowOff>
               </to>
             </anchor>
@@ -6009,13 +5974,13 @@
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>885825</xdr:colOff>
-                <xdr:row>62</xdr:row>
+                <xdr:row>63</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>457200</xdr:colOff>
-                <xdr:row>62</xdr:row>
+                <xdr:row>63</xdr:row>
                 <xdr:rowOff>314325</xdr:rowOff>
               </to>
             </anchor>
@@ -6034,13 +5999,13 @@
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>514350</xdr:colOff>
-                <xdr:row>63</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>1628775</xdr:colOff>
-                <xdr:row>63</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>276225</xdr:rowOff>
               </to>
             </anchor>
@@ -6059,13 +6024,13 @@
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>1028700</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>65</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>2200275</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>65</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -6084,13 +6049,13 @@
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>1266825</xdr:colOff>
-                <xdr:row>66</xdr:row>
+                <xdr:row>67</xdr:row>
                 <xdr:rowOff>47625</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>67</xdr:row>
+                <xdr:row>68</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -6109,13 +6074,13 @@
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>1104900</xdr:colOff>
-                <xdr:row>67</xdr:row>
+                <xdr:row>68</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>5</xdr:col>
                 <xdr:colOff>733425</xdr:colOff>
-                <xdr:row>67</xdr:row>
+                <xdr:row>68</xdr:row>
                 <xdr:rowOff>571500</xdr:rowOff>
               </to>
             </anchor>
@@ -6134,13 +6099,13 @@
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>342900</xdr:colOff>
-                <xdr:row>84</xdr:row>
+                <xdr:row>85</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>1190625</xdr:colOff>
-                <xdr:row>84</xdr:row>
+                <xdr:row>85</xdr:row>
                 <xdr:rowOff>257175</xdr:rowOff>
               </to>
             </anchor>
@@ -6159,13 +6124,13 @@
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>752475</xdr:colOff>
-                <xdr:row>86</xdr:row>
+                <xdr:row>87</xdr:row>
                 <xdr:rowOff>47625</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>86</xdr:row>
+                <xdr:row>87</xdr:row>
                 <xdr:rowOff>276225</xdr:rowOff>
               </to>
             </anchor>
@@ -6184,13 +6149,13 @@
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>190500</xdr:colOff>
-                <xdr:row>90</xdr:row>
+                <xdr:row>91</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>1476375</xdr:colOff>
-                <xdr:row>90</xdr:row>
+                <xdr:row>91</xdr:row>
                 <xdr:rowOff>971550</xdr:rowOff>
               </to>
             </anchor>
@@ -6209,13 +6174,13 @@
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>352425</xdr:colOff>
-                <xdr:row>106</xdr:row>
+                <xdr:row>107</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>106</xdr:row>
+                <xdr:row>107</xdr:row>
                 <xdr:rowOff>542925</xdr:rowOff>
               </to>
             </anchor>
@@ -6234,13 +6199,13 @@
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>107</xdr:row>
+                <xdr:row>108</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>1838325</xdr:colOff>
-                <xdr:row>107</xdr:row>
+                <xdr:row>108</xdr:row>
                 <xdr:rowOff>276225</xdr:rowOff>
               </to>
             </anchor>
@@ -6259,13 +6224,13 @@
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>1000125</xdr:colOff>
-                <xdr:row>109</xdr:row>
+                <xdr:row>110</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>923925</xdr:colOff>
-                <xdr:row>109</xdr:row>
+                <xdr:row>110</xdr:row>
                 <xdr:rowOff>257175</xdr:rowOff>
               </to>
             </anchor>
@@ -6284,13 +6249,13 @@
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>110</xdr:row>
+                <xdr:row>111</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>1704975</xdr:colOff>
-                <xdr:row>110</xdr:row>
+                <xdr:row>111</xdr:row>
                 <xdr:rowOff>247650</xdr:rowOff>
               </to>
             </anchor>
@@ -6376,12 +6341,12 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="8" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="8" t="s">
         <v>175</v>
       </c>
     </row>
@@ -6493,48 +6458,48 @@
       <c r="C3" t="s">
         <v>169</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="6" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="9" t="s">
         <v>168</v>
       </c>
       <c r="B4" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="7" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="30"/>
-      <c r="B5" s="27" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="30"/>
-      <c r="B6" s="27" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="6" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="8" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="8" t="s">
         <v>175</v>
       </c>
     </row>

--- a/regression.xlsx
+++ b/regression.xlsx
@@ -22,21 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="203">
   <si>
     <t>假设：</t>
-  </si>
-  <si>
-    <t>1、误差服从正态分布</t>
-  </si>
-  <si>
-    <t>2、自变量取一定值，误差的条件期望为0</t>
-  </si>
-  <si>
-    <t>3、自变量取一定值，误差的方差为一个常数</t>
-  </si>
-  <si>
-    <t>4、误差项相互独立</t>
   </si>
   <si>
     <t>模型检验</t>
@@ -137,21 +125,12 @@
     <t>P</t>
   </si>
   <si>
-    <t>拟合优度检验</t>
-  </si>
-  <si>
-    <t>多重可决系数R^2</t>
-  </si>
-  <si>
     <t>必在[0,1]
 越大越好</t>
   </si>
   <si>
     <t>1、F检验R等价
 2、缺点：变量个数增加，值增加，没有横向可比性</t>
-  </si>
-  <si>
-    <t>修正的可决系数</t>
   </si>
   <si>
     <t>考虑了变量个数</t>
@@ -253,9 +232,6 @@
     <t>异方差</t>
   </si>
   <si>
-    <t>定义：误差项的方差是变化的（与解释变量有关）</t>
-  </si>
-  <si>
     <t>原因</t>
   </si>
   <si>
@@ -274,9 +250,6 @@
     <t>例如，高收入和低收入的消费偏离程度不一样</t>
   </si>
   <si>
-    <t>后果：</t>
-  </si>
-  <si>
     <t>1、OLS仍然有无偏性</t>
   </si>
   <si>
@@ -335,9 +308,6 @@
   </si>
   <si>
     <t>5、H0成立时：</t>
-  </si>
-  <si>
-    <t>nR^2太大，则拒绝H0</t>
   </si>
   <si>
     <t>4、ARCH检验</t>
@@ -607,12 +577,229 @@
     <t>回到统计学目录</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>后果</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>零均值假定</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、同方差假定</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>无自相关假定</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>解释变量与随机扰动不相关</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、正态性假定</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>R^2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修正R^2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>误差项的方差是变化的（与解释变量有关）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤池信息准则</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>越小越好</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>施瓦茨信息准则</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>滞后阶</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>残差</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">检验对象 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>检验方法</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>拟合优度检验</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>残差自相关的LM检验
+Breush-Godfrey Lagrange Multiplier</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>残差自相关Q检验
+Ljung-Box Q</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>残差序列不存在自相关</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>残差序列直到P阶不存在自相关</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>残差服从正态分布</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>正态性检验
+Histogram-Normality</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Test</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>构建JB统计量，零假设下JB统计量服从chi^2(2)分布</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>异方差检验
+如果出现异方差，就要用加权最小二乘法修正</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>white检验</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>nR^2太大，则拒绝H0，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>认为存在异方差</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>内生变量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>二阶段最小二乘法</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻找一组工具变量，使得工具变量与解释变量高度相关，与误差无关</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一步是用解释变量对工具变量进行最小二乘法估计</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二步是用解释变量的拟合值对原模型进行最小二乘估计</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSLS</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>广义最小二乘法GLS</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -676,6 +863,48 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -685,7 +914,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -697,12 +926,77 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -717,16 +1011,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -745,47 +1036,191 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -813,13 +1248,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>95250</xdr:colOff>
-          <xdr:row>7</xdr:row>
+          <xdr:row>8</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1638300</xdr:colOff>
-          <xdr:row>7</xdr:row>
+          <xdr:row>8</xdr:row>
           <xdr:rowOff>685800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -857,13 +1292,13 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>7</xdr:row>
+          <xdr:row>8</xdr:row>
           <xdr:rowOff>523875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>990600</xdr:colOff>
-          <xdr:row>7</xdr:row>
+          <xdr:row>8</xdr:row>
           <xdr:rowOff>828675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -899,16 +1334,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>933450</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>219075</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -951,16 +1386,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1003,68 +1438,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>4</xdr:col>
+          <xdr:col>2</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>942975</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1030" name="Object 6" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1030"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1724025</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>314325</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
+          <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1109,13 +1492,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>8</xdr:row>
+          <xdr:row>9</xdr:row>
           <xdr:rowOff>200025</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>8</xdr:row>
+          <xdr:row>9</xdr:row>
           <xdr:rowOff>619125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1161,13 +1544,13 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>28575</xdr:colOff>
-          <xdr:row>8</xdr:row>
+          <xdr:row>9</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>1247775</xdr:colOff>
-          <xdr:row>8</xdr:row>
+          <xdr:row>9</xdr:row>
           <xdr:rowOff>247650</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1213,13 +1596,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>57150</xdr:colOff>
-          <xdr:row>9</xdr:row>
+          <xdr:row>10</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1743075</xdr:colOff>
-          <xdr:row>9</xdr:row>
+          <xdr:row>10</xdr:row>
           <xdr:rowOff>1381125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1265,13 +1648,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>57150</xdr:colOff>
-          <xdr:row>10</xdr:row>
+          <xdr:row>11</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1743075</xdr:colOff>
-          <xdr:row>10</xdr:row>
+          <xdr:row>11</xdr:row>
           <xdr:rowOff>1304925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1317,13 +1700,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>12</xdr:row>
+          <xdr:row>13</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>13</xdr:row>
+          <xdr:row>14</xdr:row>
           <xdr:rowOff>819150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1369,13 +1752,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>304800</xdr:colOff>
-          <xdr:row>14</xdr:row>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>257175</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>962025</xdr:colOff>
-          <xdr:row>14</xdr:row>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>647700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1421,169 +1804,13 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>609600</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1038" name="Object 14" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1038"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>285750</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1039" name="Object 15" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1039"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>276225</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>219075</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1040" name="Object 16" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1040"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>419100</xdr:colOff>
-          <xdr:row>3</xdr:row>
+          <xdr:row>4</xdr:row>
           <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1627,16 +1854,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>247650</xdr:rowOff>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>885825</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1679,16 +1906,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>247650</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1951,7 +2178,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>866775</xdr:colOff>
+          <xdr:colOff>676275</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>990600</xdr:rowOff>
         </xdr:to>
@@ -2003,7 +2230,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1581150</xdr:colOff>
+          <xdr:colOff>1390650</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>342900</xdr:rowOff>
         </xdr:to>
@@ -2107,7 +2334,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>323850</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
@@ -2263,7 +2490,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
@@ -2362,13 +2589,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>57150</xdr:colOff>
-          <xdr:row>19</xdr:row>
+          <xdr:row>18</xdr:row>
           <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>2085975</xdr:colOff>
-          <xdr:row>19</xdr:row>
+          <xdr:row>18</xdr:row>
           <xdr:rowOff>504825</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2414,14 +2641,14 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>17</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>704850</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>409575</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>514350</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2466,13 +2693,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1028700</xdr:colOff>
-          <xdr:row>58</xdr:row>
+          <xdr:row>60</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1685925</xdr:colOff>
-          <xdr:row>58</xdr:row>
+          <xdr:row>60</xdr:row>
           <xdr:rowOff>295275</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2518,13 +2745,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1066800</xdr:colOff>
-          <xdr:row>62</xdr:row>
+          <xdr:row>64</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1666875</xdr:colOff>
-          <xdr:row>62</xdr:row>
+          <xdr:row>64</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2570,13 +2797,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>885825</xdr:colOff>
-          <xdr:row>63</xdr:row>
+          <xdr:row>65</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>63</xdr:row>
+          <xdr:row>65</xdr:row>
           <xdr:rowOff>314325</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2622,13 +2849,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>514350</xdr:colOff>
-          <xdr:row>64</xdr:row>
+          <xdr:row>66</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1628775</xdr:colOff>
-          <xdr:row>64</xdr:row>
+          <xdr:row>66</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2674,13 +2901,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1028700</xdr:colOff>
-          <xdr:row>65</xdr:row>
+          <xdr:row>67</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>2200275</xdr:colOff>
-          <xdr:row>65</xdr:row>
+          <xdr:row>67</xdr:row>
           <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2726,13 +2953,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1266825</xdr:colOff>
-          <xdr:row>67</xdr:row>
+          <xdr:row>69</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>68</xdr:row>
+          <xdr:row>70</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2778,13 +3005,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1104900</xdr:colOff>
-          <xdr:row>68</xdr:row>
+          <xdr:row>70</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>733425</xdr:colOff>
-          <xdr:row>68</xdr:row>
+          <xdr:colOff>419100</xdr:colOff>
+          <xdr:row>70</xdr:row>
           <xdr:rowOff>571500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2830,13 +3057,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
-          <xdr:row>85</xdr:row>
+          <xdr:row>87</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1190625</xdr:colOff>
-          <xdr:row>85</xdr:row>
+          <xdr:row>87</xdr:row>
           <xdr:rowOff>257175</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2882,13 +3109,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>752475</xdr:colOff>
-          <xdr:row>87</xdr:row>
+          <xdr:row>89</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>87</xdr:row>
+          <xdr:row>89</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2934,13 +3161,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
-          <xdr:row>91</xdr:row>
+          <xdr:row>93</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1476375</xdr:colOff>
-          <xdr:row>91</xdr:row>
+          <xdr:row>93</xdr:row>
           <xdr:rowOff>971550</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2986,13 +3213,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>352425</xdr:colOff>
-          <xdr:row>107</xdr:row>
+          <xdr:row>109</xdr:row>
           <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>107</xdr:row>
+          <xdr:row>109</xdr:row>
           <xdr:rowOff>542925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3038,13 +3265,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>108</xdr:row>
+          <xdr:row>110</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1838325</xdr:colOff>
-          <xdr:row>108</xdr:row>
+          <xdr:row>110</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3090,13 +3317,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1000125</xdr:colOff>
-          <xdr:row>110</xdr:row>
+          <xdr:row>112</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>923925</xdr:colOff>
-          <xdr:row>110</xdr:row>
+          <xdr:colOff>609600</xdr:colOff>
+          <xdr:row>112</xdr:row>
           <xdr:rowOff>257175</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3142,13 +3369,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>571500</xdr:colOff>
-          <xdr:row>111</xdr:row>
+          <xdr:row>113</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1704975</xdr:colOff>
-          <xdr:row>111</xdr:row>
+          <xdr:row>113</xdr:row>
           <xdr:rowOff>247650</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3181,6 +3408,71 @@
               <a:headEnd/>
               <a:tailEnd/>
             </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>120</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>895350</xdr:colOff>
+          <xdr:row>120</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2081" name="Object 33" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2081"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3610,16 +3902,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.75" customWidth="1"/>
-    <col min="2" max="2" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="18.125" customWidth="1"/>
   </cols>
@@ -3628,132 +3920,143 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:7" ht="46.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="36" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="34" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
+      <c r="B8" s="34" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
+      <c r="C8" s="34" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="D8" s="34" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="E8" s="34"/>
+    </row>
+    <row r="9" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E9" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
+      <c r="F9" s="3"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="35"/>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="11" spans="1:7" ht="116.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
-      <c r="B9" t="s">
+    </row>
+    <row r="12" spans="1:7" ht="123" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="35"/>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="116.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="9" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="35"/>
+      <c r="C14" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="15" spans="1:7" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="35"/>
+      <c r="C15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="123" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="9"/>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="9" t="s">
+      <c r="E15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="1" t="s">
+    </row>
+    <row r="16" spans="1:7" ht="72.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="34" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="9"/>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="9"/>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="72.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B17" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B18" s="8" t="s">
-        <v>175</v>
+      <c r="B18" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B19" s="7" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A14"/>
+  <mergeCells count="4">
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A7:E7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B17" r:id="rId1"/>
-    <hyperlink ref="B18" r:id="rId2"/>
+    <hyperlink ref="B18" r:id="rId1"/>
+    <hyperlink ref="B19" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <drawing r:id="rId3"/>
@@ -3767,13 +4070,13 @@
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>95250</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>8</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>1638300</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>8</xdr:row>
                 <xdr:rowOff>685800</xdr:rowOff>
               </to>
             </anchor>
@@ -3792,13 +4095,13 @@
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>8</xdr:row>
                 <xdr:rowOff>523875</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>990600</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>8</xdr:row>
                 <xdr:rowOff>828675</xdr:rowOff>
               </to>
             </anchor>
@@ -3812,19 +4115,19 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject progId="Equation.KSEE3" shapeId="1028" r:id="rId9">
-          <objectPr defaultSize="0" altText="" r:id="rId10">
+          <objectPr defaultSize="0" autoPict="0" altText="" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>933450</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>219075</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
+                <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -3837,19 +4140,19 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject progId="Equation.KSEE3" shapeId="1029" r:id="rId11">
-          <objectPr defaultSize="0" altText="" r:id="rId12">
+          <objectPr defaultSize="0" autoPict="0" altText="" r:id="rId12">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:rowOff>66675</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -3861,69 +4164,44 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1030" r:id="rId13">
-          <objectPr defaultSize="0" altText="" r:id="rId14">
+        <oleObject progId="Equation.KSEE3" shapeId="1031" r:id="rId13">
+          <objectPr defaultSize="0" autoPict="0" altText="" r:id="rId14">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
+                <xdr:col>2</xdr:col>
                 <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>942975</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1724025</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>304800</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1030" r:id="rId13"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1031" r:id="rId13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1031" r:id="rId15">
+        <oleObject progId="Equation.KSEE3" shapeId="1032" r:id="rId15">
           <objectPr defaultSize="0" altText="" r:id="rId16">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>314325</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>257175</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1031" r:id="rId15"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1032" r:id="rId17">
-          <objectPr defaultSize="0" altText="" r:id="rId18">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>9</xdr:row>
                 <xdr:rowOff>200025</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>9</xdr:row>
                 <xdr:rowOff>619125</xdr:rowOff>
               </to>
             </anchor>
@@ -3931,24 +4209,24 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1032" r:id="rId17"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1032" r:id="rId15"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1033" r:id="rId19">
-          <objectPr defaultSize="0" altText="" r:id="rId20">
+        <oleObject progId="Equation.KSEE3" shapeId="1033" r:id="rId17">
+          <objectPr defaultSize="0" altText="" r:id="rId18">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>9</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>1247775</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>9</xdr:row>
                 <xdr:rowOff>247650</xdr:rowOff>
               </to>
             </anchor>
@@ -3956,38 +4234,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1033" r:id="rId19"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1033" r:id="rId17"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1034" r:id="rId21">
-          <objectPr defaultSize="0" altText="" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1743075</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>1381125</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1034" r:id="rId21"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1035" r:id="rId23">
-          <objectPr defaultSize="0" altText="" r:id="rId24">
+        <oleObject progId="Equation.KSEE3" shapeId="1034" r:id="rId19">
+          <objectPr defaultSize="0" altText="" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -3999,6 +4252,31 @@
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>1743075</xdr:colOff>
                 <xdr:row>10</xdr:row>
+                <xdr:rowOff>1381125</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.KSEE3" shapeId="1034" r:id="rId19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.KSEE3" shapeId="1035" r:id="rId21">
+          <objectPr defaultSize="0" altText="" r:id="rId22">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1743075</xdr:colOff>
+                <xdr:row>11</xdr:row>
                 <xdr:rowOff>1304925</xdr:rowOff>
               </to>
             </anchor>
@@ -4006,24 +4284,24 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1035" r:id="rId23"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1035" r:id="rId21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1036" r:id="rId25">
-          <objectPr defaultSize="0" altText="" r:id="rId26">
+        <oleObject progId="Equation.KSEE3" shapeId="1036" r:id="rId23">
+          <objectPr defaultSize="0" altText="" r:id="rId24">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
+                <xdr:row>13</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>819150</xdr:rowOff>
               </to>
             </anchor>
@@ -4031,24 +4309,24 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1036" r:id="rId25"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1036" r:id="rId23"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1037" r:id="rId27">
-          <objectPr defaultSize="0" altText="" r:id="rId28">
+        <oleObject progId="Equation.KSEE3" shapeId="1037" r:id="rId25">
+          <objectPr defaultSize="0" altText="" r:id="rId26">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>257175</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>962025</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>647700</xdr:rowOff>
               </to>
             </anchor>
@@ -4056,99 +4334,24 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1037" r:id="rId27"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1037" r:id="rId25"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1038" r:id="rId29">
-          <objectPr defaultSize="0" altText="" r:id="rId30">
+        <oleObject progId="Equation.KSEE3" shapeId="1041" r:id="rId27">
+          <objectPr defaultSize="0" altText="" r:id="rId28">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1038" r:id="rId29"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1039" r:id="rId31">
-          <objectPr defaultSize="0" altText="" r:id="rId32">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>285750</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1039" r:id="rId31"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1040" r:id="rId33">
-          <objectPr defaultSize="0" altText="" r:id="rId34">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>219075</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1040" r:id="rId33"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1041" r:id="rId35">
-          <objectPr defaultSize="0" altText="" r:id="rId36">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>304800</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>8</xdr:col>
                 <xdr:colOff>419100</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
             </anchor>
@@ -4156,57 +4359,57 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1041" r:id="rId35"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1041" r:id="rId27"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1042" r:id="rId37">
-          <objectPr defaultSize="0" altText="" r:id="rId38">
+        <oleObject progId="Equation.KSEE3" shapeId="1042" r:id="rId29">
+          <objectPr defaultSize="0" autoPict="0" altText="" r:id="rId30">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>247650</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>885825</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1042" r:id="rId37"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1042" r:id="rId29"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1043" r:id="rId39">
-          <objectPr defaultSize="0" altText="" r:id="rId40">
+        <oleObject progId="Equation.KSEE3" shapeId="1043" r:id="rId31">
+          <objectPr defaultSize="0" autoPict="0" altText="" r:id="rId32">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>247650</xdr:rowOff>
+                <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1043" r:id="rId39"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1043" r:id="rId31"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -4215,1361 +4418,1613 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:I137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="I77" sqref="I77"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="27.875" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
     <col min="4" max="4" width="31.75" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="11.125" customWidth="1"/>
     <col min="7" max="7" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="47.1" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="1:9" ht="47.1" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:9" ht="26.1" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="6" spans="1:9" ht="81" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="10" t="s">
-        <v>26</v>
+      <c r="A6" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:9" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="12"/>
+      <c r="B8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="12"/>
+      <c r="B9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10" t="s">
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="21"/>
+    </row>
+    <row r="14" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="22"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="23"/>
+    </row>
+    <row r="15" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="22"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="23"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="64" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10" t="s">
+      <c r="F16" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10" t="s">
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="23"/>
+    </row>
+    <row r="17" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="65" t="s">
+        <v>183</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10" t="s">
+      <c r="F17" s="17"/>
+      <c r="G17" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-    </row>
-    <row r="14" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-    </row>
-    <row r="15" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="12" t="s">
+      <c r="H17" s="17"/>
+      <c r="I17" s="23"/>
+    </row>
+    <row r="18" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="65"/>
+      <c r="B18" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="H18" s="17"/>
+      <c r="I18" s="23"/>
+    </row>
+    <row r="19" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="22"/>
+      <c r="B19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-    </row>
-    <row r="17" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="13" t="s">
+      <c r="F19" s="17"/>
+      <c r="G19" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="H19" s="17"/>
+      <c r="I19" s="23"/>
+    </row>
+    <row r="20" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="B20" s="60" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" s="59"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="61" t="s">
+        <v>177</v>
+      </c>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="23"/>
+    </row>
+    <row r="21" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="65"/>
+      <c r="B21" s="60" t="s">
+        <v>178</v>
+      </c>
+      <c r="C21" s="59"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="23"/>
+    </row>
+    <row r="22" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="64" t="s">
+        <v>180</v>
+      </c>
+      <c r="B22" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="C22" s="59" t="s">
+        <v>186</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="23"/>
+    </row>
+    <row r="23" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="64"/>
+      <c r="B23" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="C23" s="59" t="s">
+        <v>187</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="23"/>
+    </row>
+    <row r="24" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="64"/>
+      <c r="B24" s="63" t="s">
+        <v>189</v>
+      </c>
+      <c r="C24" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="D24" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="E24" s="17"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="23"/>
+    </row>
+    <row r="25" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="24"/>
+      <c r="B25" s="66" t="s">
+        <v>191</v>
+      </c>
+      <c r="C25" s="67" t="s">
+        <v>192</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="27"/>
+    </row>
+    <row r="27" spans="1:9" ht="51" x14ac:dyDescent="0.15">
+      <c r="A27" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="14" t="s">
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="46"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="14" t="s">
+      <c r="B28" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-    </row>
-    <row r="18" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="13"/>
-      <c r="B18" s="12" t="s">
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29" s="42"/>
+      <c r="B29" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12" t="s">
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="13"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-    </row>
-    <row r="20" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="15" t="s">
+      <c r="B30" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12" t="s">
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="13"/>
+    </row>
+    <row r="31" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A31" s="42"/>
+      <c r="B31" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-    </row>
-    <row r="21" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E21" s="2"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="10" t="s">
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="13"/>
+    </row>
+    <row r="32" spans="1:9" ht="69" x14ac:dyDescent="0.15">
+      <c r="A32" s="42"/>
+      <c r="B32" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="16" t="s">
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="13"/>
+    </row>
+    <row r="33" spans="1:7" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="42"/>
+      <c r="B33" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="13"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="12"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="13"/>
+    </row>
+    <row r="35" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A35" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="16"/>
-      <c r="B25" s="10" t="s">
+      <c r="B35" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="16" t="s">
+      <c r="C35" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="13"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="12"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="13"/>
+    </row>
+    <row r="37" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A37" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-    </row>
-    <row r="27" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="16"/>
-      <c r="B27" s="17" t="s">
+      <c r="B37" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-    </row>
-    <row r="28" spans="1:9" ht="69" x14ac:dyDescent="0.15">
-      <c r="A28" s="16"/>
-      <c r="B28" s="18" t="s">
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="13"/>
+    </row>
+    <row r="38" spans="1:7" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="42"/>
+      <c r="B38" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-    </row>
-    <row r="29" spans="1:9" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="16"/>
-      <c r="B29" s="18" t="s">
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="13"/>
+    </row>
+    <row r="39" spans="1:7" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A39" s="42"/>
+      <c r="B39" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-    </row>
-    <row r="31" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A31" s="10" t="s">
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="13"/>
+    </row>
+    <row r="40" spans="1:7" ht="224.25" x14ac:dyDescent="0.15">
+      <c r="A40" s="42"/>
+      <c r="B40" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="13"/>
+    </row>
+    <row r="41" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A41" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="B41" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="13"/>
+    </row>
+    <row r="42" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A42" s="42"/>
+      <c r="B42" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="13"/>
+    </row>
+    <row r="43" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A43" s="43"/>
+      <c r="B43" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-    </row>
-    <row r="33" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="16" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="16"/>
+    </row>
+    <row r="44" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="1:7" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="39"/>
+    </row>
+    <row r="46" spans="1:7" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A46" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="B46" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="13"/>
+    </row>
+    <row r="47" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-    </row>
-    <row r="34" spans="1:7" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="16"/>
-      <c r="B34" s="18" t="s">
+      <c r="B47" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-    </row>
-    <row r="35" spans="1:7" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="16"/>
-      <c r="B35" s="18" t="s">
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="13"/>
+    </row>
+    <row r="48" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="49"/>
+      <c r="B48" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-    </row>
-    <row r="36" spans="1:7" ht="224.25" x14ac:dyDescent="0.15">
-      <c r="A36" s="16"/>
-      <c r="B36" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-    </row>
-    <row r="37" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A37" s="16" t="s">
+      <c r="C48" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="13"/>
+    </row>
+    <row r="49" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="49"/>
+      <c r="B49" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="13"/>
+    </row>
+    <row r="50" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="B37" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-    </row>
-    <row r="38" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A38" s="16"/>
-      <c r="B38" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-    </row>
-    <row r="39" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A39" s="16"/>
-      <c r="B39" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-    </row>
-    <row r="40" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A41" s="18" t="s">
+      <c r="B50" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-    </row>
-    <row r="42" spans="1:7" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A42" s="18" t="s">
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="13"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A51" s="49"/>
+      <c r="B51" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-    </row>
-    <row r="43" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A43" s="18" t="s">
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="13"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A52" s="49"/>
+      <c r="B52" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="13"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A53" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-    </row>
-    <row r="44" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A44" s="18"/>
-      <c r="B44" s="10" t="s">
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="13"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A54" s="50"/>
+      <c r="B54" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C54" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-    </row>
-    <row r="45" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A45" s="18"/>
-      <c r="B45" s="10" t="s">
+      <c r="D54" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="13"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A55" s="50"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-    </row>
-    <row r="46" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A46" s="18"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-    </row>
-    <row r="47" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A47" s="18" t="s">
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="13"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A56" s="50"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="D56" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10" t="s">
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="13"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A57" s="50"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10" t="s">
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="13"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A58" s="50"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" s="10" t="s">
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="13"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A59" s="50"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52" s="16"/>
-      <c r="B52" s="20" t="s">
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="13"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A60" s="50"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="13"/>
+    </row>
+    <row r="61" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="50"/>
+      <c r="B61" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="C61" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D61" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A53" s="16"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="10" t="s">
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="13"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A62" s="50"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A54" s="16"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="16" t="s">
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="13"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A63" s="50"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="13"/>
+    </row>
+    <row r="64" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="50"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A55" s="16"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="10" t="s">
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="13"/>
+    </row>
+    <row r="65" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="50"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A56" s="16"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="10" t="s">
+      <c r="E65" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="F65" s="8"/>
+      <c r="G65" s="13"/>
+    </row>
+    <row r="66" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="50"/>
+      <c r="B66" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A57" s="16"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="10" t="s">
+      <c r="C66" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D66" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A58" s="16"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="10" t="s">
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="13"/>
+    </row>
+    <row r="67" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="50"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="40"/>
+      <c r="D67" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-    </row>
-    <row r="59" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="16"/>
-      <c r="B59" s="20" t="s">
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="13"/>
+    </row>
+    <row r="68" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="50"/>
+      <c r="B68" s="41"/>
+      <c r="C68" s="40"/>
+      <c r="D68" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C59" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D59" s="10" t="s">
+      <c r="E68" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A60" s="16"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="10" t="s">
+      <c r="F68" s="8"/>
+      <c r="G68" s="13"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A69" s="50"/>
+      <c r="B69" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A61" s="16"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="10" t="s">
+      <c r="C69" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-    </row>
-    <row r="62" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="16"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="10" t="s">
+      <c r="D69" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-    </row>
-    <row r="63" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="16"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="10" t="s">
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="13"/>
+    </row>
+    <row r="70" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="E63" s="10" t="s">
+      <c r="B70" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-    </row>
-    <row r="64" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="16"/>
-      <c r="B64" s="20" t="s">
+      <c r="C70" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D70" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C64" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D64" s="10" t="s">
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="13"/>
+    </row>
+    <row r="71" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="50"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-    </row>
-    <row r="65" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="16"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="10" t="s">
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="13"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A72" s="50"/>
+      <c r="B72" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-    </row>
-    <row r="66" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="16"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="10" t="s">
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="13"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A73" s="51"/>
+      <c r="B73" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="E66" s="10" t="s">
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="16"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A75" s="17"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+    </row>
+    <row r="76" spans="1:7" ht="46.5" x14ac:dyDescent="0.15">
+      <c r="A76" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A67" s="16"/>
-      <c r="B67" s="10" t="s">
+      <c r="B76" s="56"/>
+      <c r="C76" s="56"/>
+      <c r="D76" s="56"/>
+      <c r="E76" s="56"/>
+      <c r="F76" s="56"/>
+      <c r="G76" s="57"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A77" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="13"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A78" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="B78" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D67" s="10" t="s">
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="13"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A79" s="50"/>
+      <c r="B79" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-    </row>
-    <row r="68" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="16" t="s">
+      <c r="C79" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="13"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A80" s="50"/>
+      <c r="B80" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C68" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D68" s="10" t="s">
+      <c r="C80" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-    </row>
-    <row r="69" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="16"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10" t="s">
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="13"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A81" s="50"/>
+      <c r="B81" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A70" s="16"/>
-      <c r="B70" s="10" t="s">
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="13"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A82" s="50"/>
+      <c r="B82" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A71" s="16"/>
-      <c r="B71" s="10" t="s">
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="13"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A83" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A72" s="10"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A74" s="10" t="s">
+      <c r="B83" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A75" s="10" t="s">
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="13"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A84" s="50"/>
+      <c r="B84" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A76" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B76" s="10" t="s">
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="13"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A85" s="50"/>
+      <c r="B85" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A77" s="16"/>
-      <c r="B77" s="10" t="s">
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="13"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A86" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="B86" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="13"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A87" s="50"/>
+      <c r="B87" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A78" s="16"/>
-      <c r="B78" s="10" t="s">
+      <c r="C87" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D87" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="13"/>
+    </row>
+    <row r="88" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="50"/>
+      <c r="B88" s="40"/>
+      <c r="C88" s="40"/>
+      <c r="D88" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A79" s="16"/>
-      <c r="B79" s="10" t="s">
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="13"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A89" s="50"/>
+      <c r="B89" s="40"/>
+      <c r="C89" s="40"/>
+      <c r="D89" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="10"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A80" s="16"/>
-      <c r="B80" s="10" t="s">
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="13"/>
+    </row>
+    <row r="90" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="50"/>
+      <c r="B90" s="40"/>
+      <c r="C90" s="40"/>
+      <c r="D90" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A81" s="16" t="s">
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="13"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A91" s="50"/>
+      <c r="B91" s="40"/>
+      <c r="C91" s="40"/>
+      <c r="D91" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="13"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A92" s="50"/>
+      <c r="B92" s="40"/>
+      <c r="C92" s="40"/>
+      <c r="D92" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A82" s="16"/>
-      <c r="B82" s="10" t="s">
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="13"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A93" s="50"/>
+      <c r="B93" s="40"/>
+      <c r="C93" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D93" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A83" s="16"/>
-      <c r="B83" s="10" t="s">
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="13"/>
+    </row>
+    <row r="94" spans="1:7" ht="81.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="50"/>
+      <c r="B94" s="40"/>
+      <c r="C94" s="40"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="13"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A95" s="50"/>
+      <c r="B95" s="40"/>
+      <c r="C95" s="40"/>
+      <c r="D95" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C83" s="10"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A84" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B84" s="10" t="s">
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="13"/>
+    </row>
+    <row r="96" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A96" s="50"/>
+      <c r="B96" s="40"/>
+      <c r="C96" s="40"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A85" s="16"/>
-      <c r="B85" s="16" t="s">
+      <c r="F96" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="C85" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D85" s="10" t="s">
+      <c r="G96" s="13"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A97" s="50"/>
+      <c r="B97" s="40"/>
+      <c r="C97" s="40"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="32">
+        <v>4</v>
+      </c>
+      <c r="F97" s="32">
+        <v>-1</v>
+      </c>
+      <c r="G97" s="13"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A98" s="50"/>
+      <c r="B98" s="40"/>
+      <c r="C98" s="40"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-    </row>
-    <row r="86" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="16"/>
-      <c r="B86" s="16"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="10" t="s">
+      <c r="F98" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A87" s="16"/>
-      <c r="B87" s="16"/>
-      <c r="C87" s="16"/>
-      <c r="D87" s="10" t="s">
+      <c r="G98" s="13"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A99" s="50"/>
+      <c r="B99" s="40"/>
+      <c r="C99" s="40"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="32">
+        <v>2</v>
+      </c>
+      <c r="F99" s="32">
+        <v>0</v>
+      </c>
+      <c r="G99" s="13"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A100" s="50"/>
+      <c r="B100" s="40"/>
+      <c r="C100" s="40"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
-    </row>
-    <row r="88" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="16"/>
-      <c r="B88" s="16"/>
-      <c r="C88" s="16"/>
-      <c r="D88" s="10" t="s">
+      <c r="F100" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A89" s="16"/>
-      <c r="B89" s="16"/>
-      <c r="C89" s="16"/>
-      <c r="D89" s="10" t="s">
+      <c r="G100" s="13"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A101" s="50"/>
+      <c r="B101" s="40"/>
+      <c r="C101" s="40"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="32">
+        <v>2</v>
+      </c>
+      <c r="F101" s="32">
+        <v>1</v>
+      </c>
+      <c r="G101" s="13"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A102" s="50"/>
+      <c r="B102" s="40"/>
+      <c r="C102" s="40"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="13"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A103" s="50"/>
+      <c r="B103" s="40"/>
+      <c r="C103" s="40"/>
+      <c r="D103" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A90" s="16"/>
-      <c r="B90" s="16"/>
-      <c r="C90" s="16"/>
-      <c r="D90" s="10" t="s">
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="13"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A104" s="50"/>
+      <c r="B104" s="40"/>
+      <c r="C104" s="40"/>
+      <c r="D104" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E104" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A91" s="16"/>
-      <c r="B91" s="16"/>
-      <c r="C91" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D91" s="10" t="s">
+      <c r="F104" s="8"/>
+      <c r="G104" s="13"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A105" s="50"/>
+      <c r="B105" s="40"/>
+      <c r="C105" s="40"/>
+      <c r="D105" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
-      <c r="G91" s="10"/>
-    </row>
-    <row r="92" spans="1:7" ht="81.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="16"/>
-      <c r="B92" s="16"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="10"/>
-      <c r="G92" s="10"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A93" s="16"/>
-      <c r="B93" s="16"/>
-      <c r="C93" s="16"/>
-      <c r="D93" s="10" t="s">
+      <c r="E105" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10"/>
-      <c r="G93" s="10"/>
-    </row>
-    <row r="94" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A94" s="16"/>
-      <c r="B94" s="16"/>
-      <c r="C94" s="16"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="21" t="s">
+      <c r="F105" s="8"/>
+      <c r="G105" s="13"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A106" s="50"/>
+      <c r="B106" s="40"/>
+      <c r="C106" s="40"/>
+      <c r="D106" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="F94" s="22" t="s">
+      <c r="E106" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="G94" s="10"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A95" s="16"/>
-      <c r="B95" s="16"/>
-      <c r="C95" s="16"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="21">
-        <v>4</v>
-      </c>
-      <c r="F95" s="21">
-        <v>-1</v>
-      </c>
-      <c r="G95" s="10"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A96" s="16"/>
-      <c r="B96" s="16"/>
-      <c r="C96" s="16"/>
-      <c r="D96" s="10"/>
-      <c r="E96" s="21" t="s">
+      <c r="F106" s="8"/>
+      <c r="G106" s="13"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A107" s="50"/>
+      <c r="B107" s="40"/>
+      <c r="C107" s="40"/>
+      <c r="D107" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="F96" s="21" t="s">
+      <c r="E107" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="G96" s="10"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A97" s="16"/>
-      <c r="B97" s="16"/>
-      <c r="C97" s="16"/>
-      <c r="D97" s="10"/>
-      <c r="E97" s="21">
-        <v>2</v>
-      </c>
-      <c r="F97" s="21">
-        <v>0</v>
-      </c>
-      <c r="G97" s="10"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A98" s="16"/>
-      <c r="B98" s="16"/>
-      <c r="C98" s="16"/>
-      <c r="D98" s="10"/>
-      <c r="E98" s="21" t="s">
+      <c r="F107" s="8"/>
+      <c r="G107" s="13"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A108" s="50"/>
+      <c r="B108" s="40"/>
+      <c r="C108" s="40"/>
+      <c r="D108" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="F98" s="21" t="s">
+      <c r="E108" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F108" s="8"/>
+      <c r="G108" s="13"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A109" s="50"/>
+      <c r="B109" s="40"/>
+      <c r="C109" s="40"/>
+      <c r="D109" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="G98" s="10"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A99" s="16"/>
-      <c r="B99" s="16"/>
-      <c r="C99" s="16"/>
-      <c r="D99" s="10"/>
-      <c r="E99" s="21">
-        <v>2</v>
-      </c>
-      <c r="F99" s="21">
-        <v>1</v>
-      </c>
-      <c r="G99" s="10"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A100" s="16"/>
-      <c r="B100" s="16"/>
-      <c r="C100" s="16"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10"/>
-      <c r="G100" s="10"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A101" s="16"/>
-      <c r="B101" s="16"/>
-      <c r="C101" s="16"/>
-      <c r="D101" s="10" t="s">
+      <c r="E109" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E101" s="10"/>
-      <c r="F101" s="10"/>
-      <c r="G101" s="10"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A102" s="16"/>
-      <c r="B102" s="16"/>
-      <c r="C102" s="16"/>
-      <c r="D102" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="E102" s="10" t="s">
+      <c r="F109" s="8"/>
+      <c r="G109" s="13"/>
+    </row>
+    <row r="110" spans="1:7" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="50"/>
+      <c r="B110" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="F102" s="10"/>
-      <c r="G102" s="10"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A103" s="16"/>
-      <c r="B103" s="16"/>
-      <c r="C103" s="16"/>
-      <c r="D103" s="10" t="s">
+      <c r="C110" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D110" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E103" s="10" t="s">
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="13"/>
+    </row>
+    <row r="111" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="50"/>
+      <c r="B111" s="40"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="13"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A112" s="50"/>
+      <c r="B112" s="40"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="F103" s="10"/>
-      <c r="G103" s="10"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A104" s="16"/>
-      <c r="B104" s="16"/>
-      <c r="C104" s="16"/>
-      <c r="D104" s="10" t="s">
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="13"/>
+    </row>
+    <row r="113" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="50"/>
+      <c r="B113" s="40"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="E104" s="10" t="s">
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="13"/>
+    </row>
+    <row r="114" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="50"/>
+      <c r="B114" s="40"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="F104" s="10"/>
-      <c r="G104" s="10"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A105" s="16"/>
-      <c r="B105" s="16"/>
-      <c r="C105" s="16"/>
-      <c r="D105" s="10" t="s">
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="13"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A115" s="50"/>
+      <c r="B115" s="40"/>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="E105" s="10" t="s">
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="13"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A116" s="58"/>
+      <c r="B116" s="69" t="s">
+        <v>202</v>
+      </c>
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="13"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A117" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="B117" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="F105" s="10"/>
-      <c r="G105" s="10"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A106" s="16"/>
-      <c r="B106" s="16"/>
-      <c r="C106" s="16"/>
-      <c r="D106" s="10" t="s">
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="13"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A118" s="51"/>
+      <c r="B118" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="E106" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="F106" s="10"/>
-      <c r="G106" s="10"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A107" s="16"/>
-      <c r="B107" s="16"/>
-      <c r="C107" s="16"/>
-      <c r="D107" s="10" t="s">
+      <c r="C118" s="15"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="15"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="16"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A119" s="68"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A120" s="68" t="s">
+        <v>194</v>
+      </c>
+      <c r="B120" s="8"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+    </row>
+    <row r="121" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="68" t="s">
+        <v>195</v>
+      </c>
+      <c r="B121" s="8"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A122" s="68" t="s">
+        <v>196</v>
+      </c>
+      <c r="B122" s="52" t="s">
+        <v>197</v>
+      </c>
+      <c r="C122" s="52" t="s">
+        <v>198</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A123" s="68"/>
+      <c r="B123" s="52" t="s">
+        <v>201</v>
+      </c>
+      <c r="C123" s="52" t="s">
+        <v>199</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A124" s="68"/>
+      <c r="B124" s="8"/>
+      <c r="C124" s="52" t="s">
+        <v>200</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A125" s="68"/>
+      <c r="B125" s="8"/>
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A126" s="68"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A127" s="68"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A128" s="68"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A129" s="68"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A130" s="68"/>
+      <c r="B130" s="8"/>
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A131" s="68"/>
+      <c r="B131" s="8"/>
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A132" s="68"/>
+      <c r="B132" s="8"/>
+      <c r="C132" s="8"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A133" s="68"/>
+      <c r="B133" s="8"/>
+      <c r="C133" s="8"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A134" s="68"/>
+      <c r="B134" s="8"/>
+      <c r="C134" s="8"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I135" t="s">
         <v>144</v>
       </c>
-      <c r="E107" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="F107" s="10"/>
-      <c r="G107" s="10"/>
-    </row>
-    <row r="108" spans="1:7" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="16"/>
-      <c r="B108" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D108" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="E108" s="10"/>
-      <c r="F108" s="10"/>
-      <c r="G108" s="10"/>
-    </row>
-    <row r="109" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="16"/>
-      <c r="B109" s="16"/>
-      <c r="C109" s="10"/>
-      <c r="D109" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10"/>
-      <c r="G109" s="10"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A110" s="16"/>
-      <c r="B110" s="16"/>
-      <c r="C110" s="10"/>
-      <c r="D110" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E110" s="10"/>
-      <c r="F110" s="10"/>
-      <c r="G110" s="10"/>
-    </row>
-    <row r="111" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="16"/>
-      <c r="B111" s="16"/>
-      <c r="C111" s="10"/>
-      <c r="D111" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E111" s="10"/>
-      <c r="F111" s="10"/>
-      <c r="G111" s="10"/>
-    </row>
-    <row r="112" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="16"/>
-      <c r="B112" s="16"/>
-      <c r="C112" s="10"/>
-      <c r="D112" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="E112" s="10"/>
-      <c r="F112" s="10"/>
-      <c r="G112" s="10"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A113" s="16"/>
-      <c r="B113" s="16"/>
-      <c r="C113" s="10"/>
-      <c r="D113" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E113" s="10"/>
-      <c r="F113" s="10"/>
-      <c r="G113" s="10"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A114" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B114" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="C114" s="10"/>
-      <c r="D114" s="10"/>
-      <c r="E114" s="10"/>
-      <c r="F114" s="10"/>
-      <c r="G114" s="10"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A115" s="10"/>
-      <c r="B115" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C115" s="10"/>
-      <c r="D115" s="10"/>
-      <c r="E115" s="10"/>
-      <c r="F115" s="10"/>
-      <c r="G115" s="10"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="I116" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B117" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B118" s="8" t="s">
-        <v>175</v>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B136" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B137" s="7" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="28">
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A51:A67"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="A76:A80"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="A84:A113"/>
-    <mergeCell ref="B52:B58"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B85:B107"/>
-    <mergeCell ref="B108:B113"/>
-    <mergeCell ref="C91:C107"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C54:C58"/>
-    <mergeCell ref="C59:C63"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="C85:C90"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="B110:B115"/>
+    <mergeCell ref="A53:A69"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A86:A115"/>
+    <mergeCell ref="A76:G76"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="C93:C109"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="C61:C65"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="C87:C92"/>
+    <mergeCell ref="B54:B60"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="B87:B109"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A50:A52"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B117" r:id="rId1"/>
-    <hyperlink ref="B118" r:id="rId2"/>
+    <hyperlink ref="B136" r:id="rId1"/>
+    <hyperlink ref="B137" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2049" r:id="rId5">
-          <objectPr defaultSize="0" altText="" r:id="rId6">
+        <oleObject progId="Equation.KSEE3" shapeId="2049" r:id="rId6">
+          <objectPr defaultSize="0" altText="" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -5588,13 +6043,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2049" r:id="rId5"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2049" r:id="rId6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2050" r:id="rId7">
-          <objectPr defaultSize="0" altText="" r:id="rId8">
+        <oleObject progId="Equation.KSEE3" shapeId="2050" r:id="rId8">
+          <objectPr defaultSize="0" altText="" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -5613,13 +6068,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2050" r:id="rId7"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2050" r:id="rId8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2051" r:id="rId9">
-          <objectPr defaultSize="0" altText="" r:id="rId10">
+        <oleObject progId="Equation.KSEE3" shapeId="2051" r:id="rId10">
+          <objectPr defaultSize="0" altText="" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -5638,13 +6093,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2051" r:id="rId9"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2051" r:id="rId10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2052" r:id="rId11">
-          <objectPr defaultSize="0" altText="" r:id="rId12">
+        <oleObject progId="Equation.KSEE3" shapeId="2052" r:id="rId12">
+          <objectPr defaultSize="0" altText="" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -5663,13 +6118,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2052" r:id="rId11"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2052" r:id="rId12"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2053" r:id="rId13">
-          <objectPr defaultSize="0" altText="" r:id="rId14">
+        <oleObject progId="Equation.KSEE3" shapeId="2053" r:id="rId14">
+          <objectPr defaultSize="0" altText="" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -5679,7 +6134,7 @@
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>866775</xdr:colOff>
+                <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>6</xdr:row>
                 <xdr:rowOff>990600</xdr:rowOff>
               </to>
@@ -5688,13 +6143,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2053" r:id="rId13"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2053" r:id="rId14"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2054" r:id="rId15">
-          <objectPr defaultSize="0" altText="" r:id="rId16">
+        <oleObject progId="Equation.KSEE3" shapeId="2054" r:id="rId16">
+          <objectPr defaultSize="0" altText="" r:id="rId17">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -5704,7 +6159,7 @@
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>1581150</xdr:colOff>
+                <xdr:colOff>1390650</xdr:colOff>
                 <xdr:row>7</xdr:row>
                 <xdr:rowOff>342900</xdr:rowOff>
               </to>
@@ -5713,13 +6168,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2054" r:id="rId15"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2054" r:id="rId16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2055" r:id="rId17">
-          <objectPr defaultSize="0" altText="" r:id="rId18">
+        <oleObject progId="Equation.KSEE3" shapeId="2055" r:id="rId18">
+          <objectPr defaultSize="0" altText="" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -5738,13 +6193,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2055" r:id="rId17"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2055" r:id="rId18"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2056" r:id="rId19">
-          <objectPr defaultSize="0" altText="" r:id="rId20">
+        <oleObject progId="Equation.KSEE3" shapeId="2056" r:id="rId20">
+          <objectPr defaultSize="0" altText="" r:id="rId21">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -5754,7 +6209,7 @@
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>323850</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>9</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
@@ -5763,13 +6218,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2056" r:id="rId19"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2056" r:id="rId20"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2057" r:id="rId21">
-          <objectPr defaultSize="0" altText="" r:id="rId22">
+        <oleObject progId="Equation.KSEE3" shapeId="2057" r:id="rId22">
+          <objectPr defaultSize="0" altText="" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -5788,13 +6243,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2057" r:id="rId21"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2057" r:id="rId22"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2058" r:id="rId23">
-          <objectPr defaultSize="0" altText="" r:id="rId24">
+        <oleObject progId="Equation.KSEE3" shapeId="2058" r:id="rId24">
+          <objectPr defaultSize="0" altText="" r:id="rId25">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -5813,13 +6268,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2058" r:id="rId23"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2058" r:id="rId24"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2059" r:id="rId25">
-          <objectPr defaultSize="0" altText="" r:id="rId26">
+        <oleObject progId="Equation.KSEE3" shapeId="2059" r:id="rId26">
+          <objectPr defaultSize="0" altText="" r:id="rId27">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -5829,7 +6284,7 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
+                <xdr:colOff>38100</xdr:colOff>
                 <xdr:row>14</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
@@ -5838,13 +6293,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2059" r:id="rId25"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2059" r:id="rId26"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2060" r:id="rId27">
-          <objectPr defaultSize="0" altText="" r:id="rId28">
+        <oleObject progId="Equation.KSEE3" shapeId="2060" r:id="rId28">
+          <objectPr defaultSize="0" altText="" r:id="rId29">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -5863,24 +6318,24 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2060" r:id="rId27"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2060" r:id="rId28"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2062" r:id="rId29">
-          <objectPr defaultSize="0" altText="" r:id="rId30">
+        <oleObject progId="Equation.KSEE3" shapeId="2062" r:id="rId30">
+          <objectPr defaultSize="0" altText="" r:id="rId31">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>57150</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>18</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>2085975</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>18</xdr:row>
                 <xdr:rowOff>504825</xdr:rowOff>
               </to>
             </anchor>
@@ -5888,74 +6343,124 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2062" r:id="rId29"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2062" r:id="rId30"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2063" r:id="rId31">
-          <objectPr defaultSize="0" autoPict="0" altText="" r:id="rId32">
+        <oleObject progId="Equation.KSEE3" shapeId="2063" r:id="rId32">
+          <objectPr defaultSize="0" autoPict="0" altText="" r:id="rId33">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
                 <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>704850</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>8</xdr:col>
                 <xdr:colOff>409575</xdr:colOff>
                 <xdr:row>19</xdr:row>
-                <xdr:rowOff>514350</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2063" r:id="rId31"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2063" r:id="rId32"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2065" r:id="rId33">
-          <objectPr defaultSize="0" altText="" r:id="rId34">
+        <oleObject progId="Equation.KSEE3" shapeId="2065" r:id="rId34">
+          <objectPr defaultSize="0" altText="" r:id="rId35">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>1028700</xdr:colOff>
-                <xdr:row>58</xdr:row>
+                <xdr:row>60</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>1685925</xdr:colOff>
-                <xdr:row>58</xdr:row>
-                <xdr:rowOff>295275</xdr:rowOff>
+                <xdr:row>61</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2065" r:id="rId33"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2065" r:id="rId34"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2067" r:id="rId35">
-          <objectPr defaultSize="0" altText="" r:id="rId36">
+        <oleObject progId="Equation.KSEE3" shapeId="2067" r:id="rId36">
+          <objectPr defaultSize="0" altText="" r:id="rId37">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>1066800</xdr:colOff>
-                <xdr:row>62</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>47625</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>1666875</xdr:colOff>
-                <xdr:row>62</xdr:row>
+                <xdr:row>65</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.KSEE3" shapeId="2067" r:id="rId36"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.KSEE3" shapeId="2068" r:id="rId38">
+          <objectPr defaultSize="0" altText="" r:id="rId39">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>885825</xdr:colOff>
+                <xdr:row>65</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>457200</xdr:colOff>
+                <xdr:row>66</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.KSEE3" shapeId="2068" r:id="rId38"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.KSEE3" shapeId="2069" r:id="rId40">
+          <objectPr defaultSize="0" altText="" r:id="rId41">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>514350</xdr:colOff>
+                <xdr:row>66</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1628775</xdr:colOff>
+                <xdr:row>66</xdr:row>
                 <xdr:rowOff>276225</xdr:rowOff>
               </to>
             </anchor>
@@ -5963,49 +6468,199 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2067" r:id="rId35"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2069" r:id="rId40"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2068" r:id="rId37">
-          <objectPr defaultSize="0" altText="" r:id="rId38">
+        <oleObject progId="Equation.KSEE3" shapeId="2070" r:id="rId42">
+          <objectPr defaultSize="0" altText="" r:id="rId43">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>885825</xdr:colOff>
-                <xdr:row>63</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:colOff>1028700</xdr:colOff>
+                <xdr:row>67</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>457200</xdr:colOff>
-                <xdr:row>63</xdr:row>
-                <xdr:rowOff>314325</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>2200275</xdr:colOff>
+                <xdr:row>67</xdr:row>
+                <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2068" r:id="rId37"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2070" r:id="rId42"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2069" r:id="rId39">
-          <objectPr defaultSize="0" altText="" r:id="rId40">
+        <oleObject progId="Equation.KSEE3" shapeId="2072" r:id="rId44">
+          <objectPr defaultSize="0" altText="" r:id="rId45">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:colOff>1266825</xdr:colOff>
+                <xdr:row>69</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>70</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.KSEE3" shapeId="2072" r:id="rId44"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.KSEE3" shapeId="2073" r:id="rId46">
+          <objectPr defaultSize="0" altText="" r:id="rId47">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1104900</xdr:colOff>
+                <xdr:row>70</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>419100</xdr:colOff>
+                <xdr:row>71</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.KSEE3" shapeId="2073" r:id="rId46"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.KSEE3" shapeId="2074" r:id="rId48">
+          <objectPr defaultSize="0" altText="" r:id="rId49">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
+                <xdr:row>87</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1190625</xdr:colOff>
+                <xdr:row>88</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.KSEE3" shapeId="2074" r:id="rId48"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.KSEE3" shapeId="2075" r:id="rId50">
+          <objectPr defaultSize="0" altText="" r:id="rId51">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>752475</xdr:colOff>
+                <xdr:row>89</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>90</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.KSEE3" shapeId="2075" r:id="rId50"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.KSEE3" shapeId="2076" r:id="rId52">
+          <objectPr defaultSize="0" altText="" r:id="rId53">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>190500</xdr:colOff>
+                <xdr:row>93</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1476375</xdr:colOff>
+                <xdr:row>94</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.KSEE3" shapeId="2076" r:id="rId52"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.KSEE3" shapeId="2077" r:id="rId54">
+          <objectPr defaultSize="0" altText="" r:id="rId55">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>352425</xdr:colOff>
+                <xdr:row>109</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>110</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.KSEE3" shapeId="2077" r:id="rId54"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.KSEE3" shapeId="2078" r:id="rId56">
+          <objectPr defaultSize="0" altText="" r:id="rId57">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>110</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>1628775</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:colOff>1838325</xdr:colOff>
+                <xdr:row>110</xdr:row>
                 <xdr:rowOff>276225</xdr:rowOff>
               </to>
             </anchor>
@@ -6013,49 +6668,24 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2069" r:id="rId39"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2078" r:id="rId56"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2070" r:id="rId41">
-          <objectPr defaultSize="0" altText="" r:id="rId42">
+        <oleObject progId="Equation.KSEE3" shapeId="2079" r:id="rId58">
+          <objectPr defaultSize="0" altText="" r:id="rId59">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>1028700</xdr:colOff>
-                <xdr:row>65</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>1000125</xdr:colOff>
+                <xdr:row>112</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>2200275</xdr:colOff>
-                <xdr:row>65</xdr:row>
-                <xdr:rowOff>266700</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2070" r:id="rId41"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2072" r:id="rId43">
-          <objectPr defaultSize="0" altText="" r:id="rId44">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1266825</xdr:colOff>
-                <xdr:row>67</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>68</xdr:row>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>113</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -6063,199 +6693,24 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2072" r:id="rId43"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2079" r:id="rId58"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2073" r:id="rId45">
-          <objectPr defaultSize="0" altText="" r:id="rId46">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1104900</xdr:colOff>
-                <xdr:row>68</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>733425</xdr:colOff>
-                <xdr:row>68</xdr:row>
-                <xdr:rowOff>571500</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2073" r:id="rId45"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2074" r:id="rId47">
-          <objectPr defaultSize="0" altText="" r:id="rId48">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>342900</xdr:colOff>
-                <xdr:row>85</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1190625</xdr:colOff>
-                <xdr:row>85</xdr:row>
-                <xdr:rowOff>257175</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2074" r:id="rId47"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2075" r:id="rId49">
-          <objectPr defaultSize="0" altText="" r:id="rId50">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>752475</xdr:colOff>
-                <xdr:row>87</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>87</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2075" r:id="rId49"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2076" r:id="rId51">
-          <objectPr defaultSize="0" altText="" r:id="rId52">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
-                <xdr:row>91</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1476375</xdr:colOff>
-                <xdr:row>91</xdr:row>
-                <xdr:rowOff>971550</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2076" r:id="rId51"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2077" r:id="rId53">
-          <objectPr defaultSize="0" altText="" r:id="rId54">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>352425</xdr:colOff>
-                <xdr:row>107</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>107</xdr:row>
-                <xdr:rowOff>542925</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2077" r:id="rId53"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2078" r:id="rId55">
-          <objectPr defaultSize="0" altText="" r:id="rId56">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>108</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1838325</xdr:colOff>
-                <xdr:row>108</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2078" r:id="rId55"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2079" r:id="rId57">
-          <objectPr defaultSize="0" altText="" r:id="rId58">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1000125</xdr:colOff>
-                <xdr:row>110</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>923925</xdr:colOff>
-                <xdr:row>110</xdr:row>
-                <xdr:rowOff>257175</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2079" r:id="rId57"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2080" r:id="rId59">
-          <objectPr defaultSize="0" altText="" r:id="rId60">
+        <oleObject progId="Equation.KSEE3" shapeId="2080" r:id="rId60">
+          <objectPr defaultSize="0" altText="" r:id="rId61">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>111</xdr:row>
+                <xdr:row>113</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>1704975</xdr:colOff>
-                <xdr:row>111</xdr:row>
+                <xdr:row>113</xdr:row>
                 <xdr:rowOff>247650</xdr:rowOff>
               </to>
             </anchor>
@@ -6263,7 +6718,32 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2080" r:id="rId59"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2080" r:id="rId60"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="2081" r:id="rId62">
+          <objectPr defaultSize="0" r:id="rId63">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>120</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>895350</xdr:colOff>
+                <xdr:row>120</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="2081" r:id="rId62"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -6286,68 +6766,68 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C5" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C6" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B10" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B11" s="7" t="s">
         <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B10" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B11" s="8" t="s">
-        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -6456,51 +6936,51 @@
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>171</v>
+        <v>159</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
-        <v>168</v>
+      <c r="A4" s="47" t="s">
+        <v>158</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7" t="s">
-        <v>173</v>
+        <v>159</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
-      <c r="B5" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C5" s="6"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
-      <c r="B6" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>172</v>
+      <c r="A6" s="47"/>
+      <c r="B6" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B11" s="8" t="s">
-        <v>174</v>
+      <c r="B11" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B12" s="8" t="s">
-        <v>175</v>
+      <c r="B12" s="7" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
